--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\Documents\Mosip\Guinea\Master-data_Mosip1.2._FINAL\Master-data_Mosip1.2._FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AC238D-5DE1-4455-BD2B-B921850EC01E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0BCE02-74E7-4018-9A77-4EA64ABB93E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <t>superadmin</t>
   </si>
   <si>
-    <t>{"$schema":"http://json-schema.org/draft-07/schema#","description":"Wuri Guinea ID Schema","additionalProperties":false,"title":"Wuri Guinea ID Schema","type":"object","definitions":{"simpleType":{"uniqueItems":true,"additionalItems":false,"type":"array","items":{"additionalProperties":false,"type":"object","required":["language","value"],"properties":{"language":{"type":"string"},"value":{"type":"string"}}}},"documentType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"type":{"type":"string"},"value":{"type":"string"},"refNumber":{"type":["string","null"]}}},"biometricsType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"version":{"type":"number","minimum":0},"value":{"type":"string"}}}},"properties":{"identity":{"additionalProperties":false,"type":"object","required":["IDSchemaVersion","UIN","firstName","lastName","dateOfBirth","gender","region","prefecture","subPrefectureOrCommune","district","sector","proofOfConsent","individualBiometrics"],"properties":{"proofOfConsent":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"gender":{"bioAttributes":[],"fieldCategory":"pvt","format":"","fieldType":"default","$ref":"#/definitions/simpleType"},"region":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"proofOfException-1":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"referenceIdentityNumber":{"bioAttributes":[],"validators":[{"validator":"^([0-9]{10,30})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"kyc","type":"string","fieldType":"default"},"individualBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/biometricsType"},"prefecture":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"subPrefectureOrCommune":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"district":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"sector":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"additionalAddresDetails":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"email":{"bioAttributes":[],"validators":[{"validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerRID":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"introducerBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/biometricsType"},"firstName":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"lastName":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"dateOfBirth":{"bioAttributes":[],"validators":[{"validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"individualAuthBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/biometricsType"},"introducerUIN":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"proofOfIdentity":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"IDSchemaVersion":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"number","fieldType":"default","minimum":0},"proofOfException":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"phone":{"bioAttributes":[],"validators":[{"validator":"^(6[1256]{1})([0-9]{7})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerFirstName":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"introducerLastName":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"proofOfRelationship":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"proofOfDateOfBirth":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"proofOfAddress":{"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"UIN":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"string","fieldType":"default"}}}}}</t>
+    <t>{"$schema":"http://json-schema.org/draft-07/schema#","description":"Wuri Guinea ID Schema","additionalProperties":false,"title":"Wuri Guinea ID Schema","type":"object","definitions":{"simpleType":{"uniqueItems":true,"additionalItems":false,"type":"array","items":{"additionalProperties":false,"type":"object","required":["language","value"],"properties":{"language":{"type":"string"},"value":{"type":"string"}}}},"documentType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"type":{"type":"string"},"value":{"type":"string"},"refNumber":{"type":["string","null"]}}},"biometricsType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"version":{"type":"number","minimum":0},"value":{"type":"string"}}}},"properties":{"identity":{"additionalProperties":false,"type":"object","required":["IDSchemaVersion","firstName","lastName","dateOfBirth","gender","region","prefecture","subPrefectureOrCommune","district","sector","proofOfConsent","individualBiometrics"],"properties":{"proofOfConsent":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"gender":{"bioAttributes":[],"fieldCategory":"pvt","format":"","fieldType":"default","$ref":"#/definitions/simpleType"},"region":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"proofOfException-1":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"referenceIdentityNumber":{"bioAttributes":[],"validators":[{"validator":"^([0-9]{10,30})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"kyc","type":"string","fieldType":"default"},"individualBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/biometricsType"},"prefecture":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"subPrefectureOrCommune":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"district":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"sector":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"additionalAddresDetails":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"email":{"bioAttributes":[],"validators":[{"validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerRID":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"introducerBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/biometricsType"},"firstName":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"lastName":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"dateOfBirth":{"bioAttributes":[],"validators":[{"validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"individualAuthBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/biometricsType"},"introducerUIN":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"proofOfIdentity":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"IDSchemaVersion":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"number","fieldType":"default","minimum":0},"proofOfException":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"phone":{"bioAttributes":[],"validators":[{"validator":"^(6[1256]{1})([0-9]{7})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerFirstName":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"introducerLastName":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"proofOfRelationship":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"proofOfDateOfBirth":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"proofOfAddress":{"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"UIN":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"string","fieldType":"default"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0BCE02-74E7-4018-9A77-4EA64ABB93E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B2447C-8FFA-4770-B918-12349467D142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -64,22 +64,31 @@
     <t>PUBLISHED</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>superadmin</t>
   </si>
   <si>
     <t>{"$schema":"http://json-schema.org/draft-07/schema#","description":"Wuri Guinea ID Schema","additionalProperties":false,"title":"Wuri Guinea ID Schema","type":"object","definitions":{"simpleType":{"uniqueItems":true,"additionalItems":false,"type":"array","items":{"additionalProperties":false,"type":"object","required":["language","value"],"properties":{"language":{"type":"string"},"value":{"type":"string"}}}},"documentType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"type":{"type":"string"},"value":{"type":"string"},"refNumber":{"type":["string","null"]}}},"biometricsType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"version":{"type":"number","minimum":0},"value":{"type":"string"}}}},"properties":{"identity":{"additionalProperties":false,"type":"object","required":["IDSchemaVersion","firstName","lastName","dateOfBirth","gender","region","prefecture","subPrefectureOrCommune","district","sector","proofOfConsent","individualBiometrics"],"properties":{"proofOfConsent":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"gender":{"bioAttributes":[],"fieldCategory":"pvt","format":"","fieldType":"default","$ref":"#/definitions/simpleType"},"region":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"proofOfException-1":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"referenceIdentityNumber":{"bioAttributes":[],"validators":[{"validator":"^([0-9]{10,30})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"kyc","type":"string","fieldType":"default"},"individualBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/biometricsType"},"prefecture":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"subPrefectureOrCommune":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"district":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"sector":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"additionalAddresDetails":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"email":{"bioAttributes":[],"validators":[{"validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerRID":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"introducerBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/biometricsType"},"firstName":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"lastName":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"dateOfBirth":{"bioAttributes":[],"validators":[{"validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"individualAuthBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/biometricsType"},"introducerUIN":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"proofOfIdentity":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"IDSchemaVersion":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"number","fieldType":"default","minimum":0},"proofOfException":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"phone":{"bioAttributes":[],"validators":[{"validator":"^(6[1256]{1})([0-9]{7})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerFirstName":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"introducerLastName":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/simpleType"},"proofOfRelationship":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"proofOfDateOfBirth":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"proofOfAddress":{"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#/definitions/documentType"},"UIN":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"string","fieldType":"default"}}}}}</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -563,11 +572,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,45 +933,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="6" max="6" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -969,40 +980,70 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>1001</v>
-      </c>
-      <c r="C2">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.6071759259259262E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
+      <c r="L2" s="2">
+        <v>3.6047453703703707E-2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B2447C-8FFA-4770-B918-12349467D142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E71D605-A46F-4968-B07B-A6827368F45D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -936,17 +936,19 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="6" max="6" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>3.6071759259259262E-2</v>
+        <v>45079.634583333333</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1031,7 +1033,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="2">
-        <v>3.6047453703703707E-2</v>
+        <v>45079.634583333333</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
